--- a/Immunizations.xlsx
+++ b/Immunizations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marmarti\Documents\Github\heriberto-trinity-health\pcc-immtrac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marmarti\Documents\Github\pcc-immtrac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B57528-DB7C-4571-AAB0-62943C9D9B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D1F69-9D92-4773-A8B4-012BD5046DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,9 +472,6 @@
     <t>MMR II</t>
   </si>
   <si>
-    <t>Tdap &gt; 7 years, NOS</t>
-  </si>
-  <si>
     <t>Fluarix Quadrivalent</t>
   </si>
   <si>
@@ -509,6 +506,9 @@
   </si>
   <si>
     <t>COMIRNATY TS, 10mcg/0.2mL</t>
+  </si>
+  <si>
+    <t>Boostrix</t>
   </si>
 </sst>
 </file>
@@ -907,7 +907,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>132</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>95</v>
@@ -990,7 +990,7 @@
         <v>93</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>137</v>
@@ -1008,7 +1008,7 @@
         <v>94</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>96</v>
@@ -1038,7 +1038,7 @@
         <v>101</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>138</v>
@@ -1056,7 +1056,7 @@
         <v>94</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>96</v>
@@ -1106,7 +1106,7 @@
         <v>130</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>96</v>
@@ -1156,7 +1156,7 @@
         <v>94</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>96</v>
@@ -1206,7 +1206,7 @@
         <v>112</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>96</v>
@@ -1254,7 +1254,7 @@
         <v>112</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>96</v>
@@ -1286,7 +1286,7 @@
         <v>115</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>137</v>
@@ -1304,7 +1304,7 @@
         <v>119</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>96</v>
@@ -1354,7 +1354,7 @@
         <v>94</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>96</v>
@@ -1404,7 +1404,7 @@
         <v>112</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>96</v>
@@ -1436,7 +1436,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>137</v>
@@ -1454,7 +1454,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>96</v>
@@ -1484,7 +1484,7 @@
         <v>126</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>137</v>
@@ -1502,7 +1502,7 @@
         <v>128</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>96</v>
@@ -1534,7 +1534,7 @@
         <v>135</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>137</v>
@@ -1552,7 +1552,7 @@
         <v>128</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>96</v>

--- a/Immunizations.xlsx
+++ b/Immunizations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marmarti\Documents\Github\pcc-immtrac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D1F69-9D92-4773-A8B4-012BD5046DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F953E-6224-4198-ADE8-EF3FE280E303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Immunizations.xlsx
+++ b/Immunizations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marmarti\Documents\Github\pcc-immtrac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F953E-6224-4198-ADE8-EF3FE280E303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981049FF-8B84-472D-ABA4-B37FE8474F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1056,7 @@
         <v>94</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>96</v>

--- a/Immunizations.xlsx
+++ b/Immunizations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marmarti\Documents\Github\pcc-immtrac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981049FF-8B84-472D-ABA4-B37FE8474F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41321BEC-548F-45ED-8863-B6FF48C0369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="169">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -509,6 +509,39 @@
   </si>
   <si>
     <t>Boostrix</t>
+  </si>
+  <si>
+    <t>azdhsId</t>
+  </si>
+  <si>
+    <t>vacc35_1</t>
+  </si>
+  <si>
+    <t>vacc34_1</t>
+  </si>
+  <si>
+    <t>vacc26_1</t>
+  </si>
+  <si>
+    <t>vacc22_1</t>
+  </si>
+  <si>
+    <t>vacc18_1</t>
+  </si>
+  <si>
+    <t>vacc15_1</t>
+  </si>
+  <si>
+    <t>vacc10_1</t>
+  </si>
+  <si>
+    <t>vacc8_1</t>
+  </si>
+  <si>
+    <t>vacc38_1</t>
+  </si>
+  <si>
+    <t>vacc39_1</t>
   </si>
 </sst>
 </file>
@@ -904,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,15 +954,15 @@
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="112.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="112.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -961,25 +994,28 @@
         <v>149</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>93</v>
       </c>
@@ -1010,24 +1046,27 @@
       <c r="J2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="9">
+      <c r="N2" s="2"/>
+      <c r="O2" s="9">
         <v>1</v>
       </c>
-      <c r="O2" s="9">
+      <c r="P2" s="9">
         <v>2</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>101</v>
       </c>
@@ -1058,26 +1097,29 @@
       <c r="J3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="9">
+      <c r="O3" s="9">
         <v>1</v>
       </c>
-      <c r="O3" s="9">
+      <c r="P3" s="9">
         <v>20</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>129</v>
       </c>
@@ -1108,26 +1150,29 @@
       <c r="J4" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="9">
+      <c r="O4" s="9">
         <v>1</v>
       </c>
-      <c r="O4" s="9">
+      <c r="P4" s="9">
         <v>160</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>107</v>
       </c>
@@ -1158,26 +1203,29 @@
       <c r="J5" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N5" s="9">
+      <c r="O5" s="9">
         <v>1</v>
       </c>
-      <c r="O5" s="9">
+      <c r="P5" s="9">
         <v>60</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>109</v>
       </c>
@@ -1208,24 +1256,27 @@
       <c r="J6" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="9">
+      <c r="N6" s="2"/>
+      <c r="O6" s="9">
         <v>1</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="10">
         <v>1</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1256,26 +1307,29 @@
       <c r="J7" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="9">
         <v>1</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <v>51</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1306,26 +1360,29 @@
       <c r="J8" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="10">
+      <c r="O8" s="10">
         <v>3</v>
       </c>
-      <c r="O8" s="10">
+      <c r="P8" s="10">
         <v>22</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>120</v>
       </c>
@@ -1356,26 +1413,29 @@
       <c r="J9" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>1</v>
       </c>
-      <c r="O9" s="10">
+      <c r="P9" s="10">
         <v>40</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1406,26 +1466,29 @@
       <c r="J10" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="10">
         <v>1</v>
       </c>
-      <c r="O10" s="10">
+      <c r="P10" s="10">
         <v>30</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -1456,24 +1519,27 @@
       <c r="J11" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="10">
+      <c r="N11" s="2"/>
+      <c r="O11" s="10">
         <v>1</v>
       </c>
-      <c r="O11" s="10">
+      <c r="P11" s="10">
         <v>8</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>126</v>
       </c>
@@ -1504,26 +1570,29 @@
       <c r="J12" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <v>1</v>
       </c>
-      <c r="O12" s="10">
+      <c r="P12" s="10">
         <v>232</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>126</v>
       </c>
@@ -1554,22 +1623,25 @@
       <c r="J13" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <v>1</v>
       </c>
-      <c r="O13" s="10">
+      <c r="P13" s="10">
         <v>232</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>111</v>
       </c>
     </row>

--- a/Immunizations.xlsx
+++ b/Immunizations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marmarti\Documents\Github\pcc-immtrac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41321BEC-548F-45ED-8863-B6FF48C0369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB2CAB-344D-4B8F-9870-5660145D5814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="178">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -542,6 +542,33 @@
   </si>
   <si>
     <t>vacc39_1</t>
+  </si>
+  <si>
+    <t>U1C572M</t>
+  </si>
+  <si>
+    <t>LotAzdhs</t>
+  </si>
+  <si>
+    <t>vacc33_1</t>
+  </si>
+  <si>
+    <t>vacc7_1</t>
+  </si>
+  <si>
+    <t>U008899</t>
+  </si>
+  <si>
+    <t>U7211AA</t>
+  </si>
+  <si>
+    <t>U027947</t>
+  </si>
+  <si>
+    <t>T039671</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -580,7 +607,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +622,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -638,12 +671,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -655,8 +689,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,15 +990,15 @@
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1"/>
-    <col min="14" max="14" width="112.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="15" max="15" width="112.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -997,25 +1033,28 @@
         <v>158</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>93</v>
       </c>
@@ -1046,27 +1085,30 @@
       <c r="J2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="9">
+      <c r="O2" s="2"/>
+      <c r="P2" s="9">
         <v>1</v>
       </c>
-      <c r="P2" s="9">
+      <c r="Q2" s="9">
         <v>2</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>101</v>
       </c>
@@ -1097,29 +1139,32 @@
       <c r="J3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="9">
+      <c r="P3" s="9">
         <v>1</v>
       </c>
-      <c r="P3" s="9">
+      <c r="Q3" s="9">
         <v>20</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>129</v>
       </c>
@@ -1150,29 +1195,32 @@
       <c r="J4" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9">
         <v>160</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O4" s="9">
-        <v>1</v>
-      </c>
-      <c r="P4" s="9">
-        <v>160</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>107</v>
       </c>
@@ -1203,29 +1251,32 @@
       <c r="J5" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="9">
+      <c r="P5" s="9">
         <v>1</v>
       </c>
-      <c r="P5" s="9">
+      <c r="Q5" s="9">
         <v>60</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>109</v>
       </c>
@@ -1256,27 +1307,30 @@
       <c r="J6" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="9">
+      <c r="O6" s="2"/>
+      <c r="P6" s="9">
         <v>1</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <v>1</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1307,29 +1361,32 @@
       <c r="J7" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O7" s="9">
+      <c r="P7" s="9">
         <v>1</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>51</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1360,29 +1417,32 @@
       <c r="J8" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="O8" s="10">
+      <c r="P8" s="10">
         <v>3</v>
       </c>
-      <c r="P8" s="10">
+      <c r="Q8" s="10">
         <v>22</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>120</v>
       </c>
@@ -1413,29 +1473,32 @@
       <c r="J9" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="9">
         <v>1</v>
       </c>
-      <c r="P9" s="10">
+      <c r="Q9" s="10">
         <v>40</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1466,29 +1529,32 @@
       <c r="J10" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O10" s="10">
+      <c r="P10" s="10">
         <v>1</v>
       </c>
-      <c r="P10" s="10">
+      <c r="Q10" s="10">
         <v>30</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -1519,27 +1585,30 @@
       <c r="J11" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="10">
+      <c r="O11" s="2"/>
+      <c r="P11" s="10">
         <v>1</v>
       </c>
-      <c r="P11" s="10">
+      <c r="Q11" s="10">
         <v>8</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>126</v>
       </c>
@@ -1570,29 +1639,32 @@
       <c r="J12" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O12" s="10">
+      <c r="P12" s="10">
         <v>1</v>
       </c>
-      <c r="P12" s="10">
+      <c r="Q12" s="10">
         <v>232</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>126</v>
       </c>
@@ -1623,25 +1695,28 @@
       <c r="J13" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O13" s="10">
+      <c r="P13" s="10">
         <v>1</v>
       </c>
-      <c r="P13" s="10">
+      <c r="Q13" s="10">
         <v>232</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>111</v>
       </c>
     </row>

--- a/Immunizations.xlsx
+++ b/Immunizations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marmarti\Documents\Github\pcc-immtrac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pcc-immtrac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB2CAB-344D-4B8F-9870-5660145D5814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E00967-3A02-4712-9B8D-DE2039CF7971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="2736" windowWidth="16416" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,30 +520,15 @@
     <t>vacc34_1</t>
   </si>
   <si>
-    <t>vacc26_1</t>
-  </si>
-  <si>
     <t>vacc22_1</t>
   </si>
   <si>
-    <t>vacc18_1</t>
-  </si>
-  <si>
     <t>vacc15_1</t>
   </si>
   <si>
-    <t>vacc10_1</t>
-  </si>
-  <si>
     <t>vacc8_1</t>
   </si>
   <si>
-    <t>vacc38_1</t>
-  </si>
-  <si>
-    <t>vacc39_1</t>
-  </si>
-  <si>
     <t>U1C572M</t>
   </si>
   <si>
@@ -553,9 +538,6 @@
     <t>vacc33_1</t>
   </si>
   <si>
-    <t>vacc7_1</t>
-  </si>
-  <si>
     <t>U008899</t>
   </si>
   <si>
@@ -569,6 +551,24 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>vacc6_1</t>
+  </si>
+  <si>
+    <t>vacc12_1</t>
+  </si>
+  <si>
+    <t>vacc17_1</t>
+  </si>
+  <si>
+    <t>vacc24_1</t>
+  </si>
+  <si>
+    <t>vacc40_1</t>
+  </si>
+  <si>
+    <t>vacc41_1</t>
   </si>
 </sst>
 </file>
@@ -975,30 +975,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" customWidth="1"/>
-    <col min="15" max="15" width="112.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" customWidth="1"/>
+    <col min="15" max="15" width="112.5546875" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>158</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>95</v>
@@ -1054,7 +1055,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>93</v>
       </c>
@@ -1086,10 +1087,10 @@
         <v>150</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>96</v>
@@ -1108,7 +1109,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>101</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>160</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>96</v>
@@ -1164,7 +1165,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>129</v>
       </c>
@@ -1196,10 +1197,10 @@
         <v>154</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>96</v>
@@ -1220,7 +1221,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>107</v>
       </c>
@@ -1252,10 +1253,10 @@
         <v>150</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>96</v>
@@ -1276,7 +1277,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>109</v>
       </c>
@@ -1308,10 +1309,10 @@
         <v>150</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>96</v>
@@ -1330,7 +1331,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>172</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>96</v>
@@ -1386,7 +1387,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1418,10 +1419,10 @@
         <v>153</v>
       </c>
       <c r="K8" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>96</v>
@@ -1442,7 +1443,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>120</v>
       </c>
@@ -1474,10 +1475,10 @@
         <v>150</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>96</v>
@@ -1498,7 +1499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1530,10 +1531,10 @@
         <v>151</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>96</v>
@@ -1554,7 +1555,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>159</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>96</v>
@@ -1608,7 +1609,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>126</v>
       </c>
@@ -1640,10 +1641,10 @@
         <v>155</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>96</v>
@@ -1664,7 +1665,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>126</v>
       </c>
@@ -1696,10 +1697,10 @@
         <v>155</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>96</v>
@@ -1734,16 +1735,16 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -1933,177 +1934,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>76</v>
       </c>

--- a/Immunizations.xlsx
+++ b/Immunizations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pcc-immtrac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E00967-3A02-4712-9B8D-DE2039CF7971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049A7269-21F1-4C9F-9E2F-3820DE9BEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2736" windowWidth="16416" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16290" yWindow="9945" windowWidth="23850" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="171">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -529,46 +529,25 @@
     <t>vacc8_1</t>
   </si>
   <si>
-    <t>U1C572M</t>
-  </si>
-  <si>
-    <t>LotAzdhs</t>
-  </si>
-  <si>
     <t>vacc33_1</t>
   </si>
   <si>
-    <t>U008899</t>
-  </si>
-  <si>
-    <t>U7211AA</t>
-  </si>
-  <si>
-    <t>U027947</t>
-  </si>
-  <si>
-    <t>T039671</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>vacc6_1</t>
   </si>
   <si>
-    <t>vacc12_1</t>
-  </si>
-  <si>
-    <t>vacc17_1</t>
-  </si>
-  <si>
-    <t>vacc24_1</t>
-  </si>
-  <si>
     <t>vacc40_1</t>
   </si>
   <si>
     <t>vacc41_1</t>
+  </si>
+  <si>
+    <t>vacc16_1</t>
+  </si>
+  <si>
+    <t>vacc21_1</t>
+  </si>
+  <si>
+    <t>vacc27_1</t>
   </si>
 </sst>
 </file>
@@ -973,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,15 +970,15 @@
     <col min="8" max="8" width="11.109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="13.109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" customWidth="1"/>
-    <col min="14" max="14" width="6.88671875" customWidth="1"/>
-    <col min="15" max="15" width="112.5546875" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1"/>
+    <col min="14" max="14" width="112.5546875" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1034,28 +1013,25 @@
         <v>158</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>93</v>
       </c>
@@ -1087,29 +1063,26 @@
         <v>150</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="9">
+        <v>1</v>
+      </c>
       <c r="P2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="9">
         <v>2</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>101</v>
       </c>
@@ -1143,29 +1116,26 @@
       <c r="K3" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>171</v>
+      <c r="L3" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="O3" s="9">
+        <v>1</v>
+      </c>
       <c r="P3" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="9">
         <v>20</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>129</v>
       </c>
@@ -1197,31 +1167,28 @@
         <v>154</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O4" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="O4" s="9">
+        <v>1</v>
+      </c>
       <c r="P4" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="9">
         <v>160</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>107</v>
       </c>
@@ -1255,29 +1222,26 @@
       <c r="K5" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>171</v>
+      <c r="L5" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
       <c r="P5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="9">
         <v>60</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>109</v>
       </c>
@@ -1309,29 +1273,26 @@
         <v>150</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9">
+      <c r="N6" s="2"/>
+      <c r="O6" s="9">
         <v>1</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="P6" s="10">
         <v>1</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1363,31 +1324,28 @@
         <v>151</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P7" s="9">
+      <c r="O7" s="9">
         <v>1</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="P7" s="10">
         <v>51</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1421,29 +1379,26 @@
       <c r="K8" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>164</v>
+      <c r="L8" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="O8" s="10">
+        <v>3</v>
+      </c>
       <c r="P8" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="10">
         <v>22</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>120</v>
       </c>
@@ -1475,31 +1430,28 @@
         <v>150</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P9" s="9">
+      <c r="O9" s="9">
         <v>1</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="P9" s="10">
         <v>40</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1533,29 +1485,26 @@
       <c r="K10" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>170</v>
+      <c r="L10" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="O10" s="10">
+        <v>1</v>
+      </c>
       <c r="P10" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="10">
         <v>30</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -1589,27 +1538,24 @@
       <c r="K11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>169</v>
+      <c r="L11" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="10">
+        <v>1</v>
+      </c>
       <c r="P11" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="10">
         <v>8</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>126</v>
       </c>
@@ -1641,31 +1587,28 @@
         <v>155</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O12" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="O12" s="10">
+        <v>1</v>
+      </c>
       <c r="P12" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="10">
         <v>232</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>126</v>
       </c>
@@ -1697,27 +1640,24 @@
         <v>155</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="O13" s="10">
+        <v>1</v>
+      </c>
       <c r="P13" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="10">
         <v>232</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>111</v>
       </c>
     </row>

--- a/Immunizations.xlsx
+++ b/Immunizations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pcc-immtrac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dev\Desktop\pcc-immtrac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049A7269-21F1-4C9F-9E2F-3820DE9BEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A1D65-7DD5-4EE3-9896-BC2A8491AD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16290" yWindow="9945" windowWidth="23850" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24300" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,40 +514,40 @@
     <t>azdhsId</t>
   </si>
   <si>
-    <t>vacc35_1</t>
-  </si>
-  <si>
-    <t>vacc34_1</t>
-  </si>
-  <si>
-    <t>vacc22_1</t>
-  </si>
-  <si>
-    <t>vacc15_1</t>
-  </si>
-  <si>
-    <t>vacc8_1</t>
-  </si>
-  <si>
-    <t>vacc33_1</t>
-  </si>
-  <si>
-    <t>vacc6_1</t>
-  </si>
-  <si>
-    <t>vacc40_1</t>
-  </si>
-  <si>
-    <t>vacc41_1</t>
-  </si>
-  <si>
-    <t>vacc16_1</t>
-  </si>
-  <si>
-    <t>vacc21_1</t>
-  </si>
-  <si>
-    <t>vacc27_1</t>
+    <t>vacc21_</t>
+  </si>
+  <si>
+    <t>vacc34_</t>
+  </si>
+  <si>
+    <t>vacc33_</t>
+  </si>
+  <si>
+    <t>vacc8_</t>
+  </si>
+  <si>
+    <t>vacc16_</t>
+  </si>
+  <si>
+    <t>vacc6_</t>
+  </si>
+  <si>
+    <t>vacc15_</t>
+  </si>
+  <si>
+    <t>vacc27_</t>
+  </si>
+  <si>
+    <t>vacc22_</t>
+  </si>
+  <si>
+    <t>vacc35_</t>
+  </si>
+  <si>
+    <t>vacc40_</t>
+  </si>
+  <si>
+    <t>vacc41_</t>
   </si>
 </sst>
 </file>
@@ -955,30 +955,30 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1"/>
-    <col min="14" max="14" width="112.5546875" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="112.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>93</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>150</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>96</v>
@@ -1082,7 +1082,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>101</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>129</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>154</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>96</v>
@@ -1188,7 +1188,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>107</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>150</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>96</v>
@@ -1241,7 +1241,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>109</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>150</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>96</v>
@@ -1292,7 +1292,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>151</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>96</v>
@@ -1345,7 +1345,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>153</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>96</v>
@@ -1398,7 +1398,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>120</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>150</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>96</v>
@@ -1451,7 +1451,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>151</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>96</v>
@@ -1504,7 +1504,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>151</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>96</v>
@@ -1555,7 +1555,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>126</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>155</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>96</v>
@@ -1608,7 +1608,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>126</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>155</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>96</v>
@@ -1675,16 +1675,16 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -1874,177 +1874,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>76</v>
       </c>

--- a/Immunizations.xlsx
+++ b/Immunizations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dev\Desktop\pcc-immtrac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pcc-immtrac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A1D65-7DD5-4EE3-9896-BC2A8491AD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7E26F8-8666-4AFD-BE2C-23FC34D39A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24300" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="169">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Lot#</t>
   </si>
   <si>
-    <t>B4975</t>
-  </si>
-  <si>
     <t>Influenza</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
     <t>tetanus toxoid, reduced diphtheria toxoid, and acellular pertussis vaccine, adsorbed</t>
   </si>
   <si>
-    <t>J39HG</t>
-  </si>
-  <si>
     <t>Menu val</t>
   </si>
   <si>
@@ -361,33 +355,21 @@
     <t>Hepatitis A</t>
   </si>
   <si>
-    <t>2K57N</t>
-  </si>
-  <si>
     <t>Hepatitis B</t>
   </si>
   <si>
-    <t>77X47</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Merk</t>
   </si>
   <si>
-    <t>TD39466</t>
-  </si>
-  <si>
     <t>Human Papillomavirus 9-valent vaccine</t>
   </si>
   <si>
     <t>IPV</t>
   </si>
   <si>
-    <t>T1E872M</t>
-  </si>
-  <si>
     <t>poliovirus vaccine, inactivated</t>
   </si>
   <si>
@@ -403,18 +385,9 @@
     <t>meningococcal oligosaccharide (groups A, C, Y and W-135) diphtheria toxoid conjugate vaccine (MCV4O)</t>
   </si>
   <si>
-    <t>AMVA588A</t>
-  </si>
-  <si>
     <t>measles, mumps and rubella virus vaccine</t>
   </si>
   <si>
-    <t>T029549</t>
-  </si>
-  <si>
-    <t>U007472</t>
-  </si>
-  <si>
     <t>SARS-COV-2</t>
   </si>
   <si>
@@ -514,47 +487,68 @@
     <t>azdhsId</t>
   </si>
   <si>
-    <t>vacc21_</t>
-  </si>
-  <si>
-    <t>vacc34_</t>
-  </si>
-  <si>
-    <t>vacc33_</t>
-  </si>
-  <si>
-    <t>vacc8_</t>
-  </si>
-  <si>
-    <t>vacc16_</t>
-  </si>
-  <si>
-    <t>vacc6_</t>
-  </si>
-  <si>
-    <t>vacc15_</t>
-  </si>
-  <si>
-    <t>vacc27_</t>
-  </si>
-  <si>
-    <t>vacc22_</t>
-  </si>
-  <si>
-    <t>vacc35_</t>
-  </si>
-  <si>
-    <t>vacc40_</t>
-  </si>
-  <si>
-    <t>vacc41_</t>
+    <t>influenza, injectable, quadrivalent, preservative free</t>
+  </si>
+  <si>
+    <t>Td (adult), 2 Lf tetanus toxoid, preservative free, adsorbed</t>
+  </si>
+  <si>
+    <t>Hep A, ped/adol, 2 dose</t>
+  </si>
+  <si>
+    <t>Hep B Ped/Adol - Preserv Free</t>
+  </si>
+  <si>
+    <t>HPV9</t>
+  </si>
+  <si>
+    <t>meningococcal MCV4P</t>
+  </si>
+  <si>
+    <t>varicella</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, 10 mcg/0.2 mL dose, tris-sucrose (Orange Cap Pfizer for 5-11 years)</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, 30 mcg/0.3 mL dose, tris-sucrose  (Gray Cap Pfizer)</t>
+  </si>
+  <si>
+    <t>93Z32</t>
+  </si>
+  <si>
+    <t>2G3PH</t>
+  </si>
+  <si>
+    <t>U7092AA</t>
+  </si>
+  <si>
+    <t>EP47E</t>
+  </si>
+  <si>
+    <t>97KT7</t>
+  </si>
+  <si>
+    <t>U008899</t>
+  </si>
+  <si>
+    <t>U1C572M</t>
+  </si>
+  <si>
+    <t>U7211AA</t>
+  </si>
+  <si>
+    <t>T039671</t>
+  </si>
+  <si>
+    <t>U027947</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,8 +579,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,8 +612,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -649,6 +657,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -656,7 +679,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -669,11 +692,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
-    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="20% - Énfasis4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% - Énfasis6" xfId="2" builtinId="50"/>
+    <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -952,50 +983,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1"/>
-    <col min="14" max="14" width="112.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="86" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1"/>
+    <col min="14" max="14" width="112.5546875" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>91</v>
@@ -1007,69 +1038,69 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>92</v>
+      <c r="G2" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="H2" s="6">
         <v>44742</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="9">
@@ -1079,51 +1110,51 @@
         <v>2</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>103</v>
+      <c r="G3" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="H3" s="6">
         <v>45082</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O3" s="9">
         <v>1</v>
@@ -1132,51 +1163,51 @@
         <v>20</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>103</v>
+      <c r="G4" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="H4" s="6">
         <v>45082</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O4" s="9">
         <v>1</v>
@@ -1185,51 +1216,51 @@
         <v>160</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>108</v>
+      <c r="G5" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="H5" s="6">
         <v>44906</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O5" s="9">
         <v>1</v>
@@ -1238,48 +1269,48 @@
         <v>60</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>110</v>
+      <c r="G6" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="H6" s="6">
         <v>45282</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="9">
@@ -1289,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1303,37 +1334,37 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>113</v>
+      <c r="G7" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="H7" s="6">
         <v>45066</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O7" s="9">
         <v>1</v>
@@ -1342,51 +1373,51 @@
         <v>51</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>116</v>
+      <c r="G8" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="H8" s="6">
         <v>44844</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O8" s="10">
         <v>3</v>
@@ -1395,51 +1426,51 @@
         <v>22</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>122</v>
+      <c r="G9" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="H9" s="6">
         <v>44774</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O9" s="9">
         <v>1</v>
@@ -1448,10 +1479,10 @@
         <v>40</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1462,37 +1493,37 @@
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>124</v>
+      <c r="G10" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="H10" s="6">
         <v>44774</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O10" s="10">
         <v>1</v>
@@ -1501,10 +1532,10 @@
         <v>30</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -1515,34 +1546,34 @@
         <v>78</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>125</v>
+      <c r="G11" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="H11" s="6">
         <v>44638</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="10">
@@ -1552,51 +1583,51 @@
         <v>8</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H12" s="6">
         <v>44866</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>169</v>
+        <v>146</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O12" s="10">
         <v>1</v>
@@ -1605,51 +1636,51 @@
         <v>232</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H13" s="6">
         <v>44866</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>170</v>
+        <v>146</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O13" s="10">
         <v>1</v>
@@ -1658,8 +1689,17 @@
         <v>232</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>111</v>
-      </c>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T16" s="13"/>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="S17" s="13"/>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1675,16 +1715,16 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,7 +1741,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1755,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1769,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1743,7 +1783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1757,7 +1797,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1771,7 +1811,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +1825,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1799,7 +1839,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1810,7 +1850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1818,7 +1858,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -1826,7 +1866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1834,7 +1874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -1842,7 +1882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -1850,7 +1890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1858,7 +1898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -1866,7 +1906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -1874,177 +1914,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>76</v>
       </c>

--- a/Immunizations.xlsx
+++ b/Immunizations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pcc-immtrac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7E26F8-8666-4AFD-BE2C-23FC34D39A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F3A71-21C4-4B20-9715-020A173B7465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,7 +986,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
